--- a/test.xlsx
+++ b/test.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\janak\Spatio_Temporal_Analysis_V1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8817A64B-8FA9-4B53-991E-240AB7E9F193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,12 +24,125 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="34">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Bounds</t>
+  </si>
+  <si>
+    <t>XLAT</t>
+  </si>
+  <si>
+    <t>XLON</t>
+  </si>
+  <si>
+    <t>Mean_AI</t>
+  </si>
+  <si>
+    <t>Bounds1</t>
+  </si>
+  <si>
+    <t>Bounds2</t>
+  </si>
+  <si>
+    <t>Bounds3</t>
+  </si>
+  <si>
+    <t>Bounds4</t>
+  </si>
+  <si>
+    <t>Bounds5</t>
+  </si>
+  <si>
+    <t>Bounds6</t>
+  </si>
+  <si>
+    <t>XLAT1</t>
+  </si>
+  <si>
+    <t>XLAT2</t>
+  </si>
+  <si>
+    <t>XLAT3</t>
+  </si>
+  <si>
+    <t>XLAT4</t>
+  </si>
+  <si>
+    <t>XLAT5</t>
+  </si>
+  <si>
+    <t>XLAT6</t>
+  </si>
+  <si>
+    <t>XLON1</t>
+  </si>
+  <si>
+    <t>XLON2</t>
+  </si>
+  <si>
+    <t>XLON3</t>
+  </si>
+  <si>
+    <t>XLON4</t>
+  </si>
+  <si>
+    <t>XLON5</t>
+  </si>
+  <si>
+    <t>XLON6</t>
+  </si>
+  <si>
+    <t>Mean_AI1</t>
+  </si>
+  <si>
+    <t>Mean_AI2</t>
+  </si>
+  <si>
+    <t>Mean_AI3</t>
+  </si>
+  <si>
+    <t>Mean_AI4</t>
+  </si>
+  <si>
+    <t>Mean_AI5</t>
+  </si>
+  <si>
+    <t>Mean_AI6</t>
+  </si>
+  <si>
+    <t>Mean_AI7</t>
+  </si>
+  <si>
+    <t>Mean_AI8</t>
+  </si>
+  <si>
+    <t>Mean_AI9</t>
+  </si>
+  <si>
+    <t>Mean_AI10</t>
+  </si>
+  <si>
+    <t>Mean_AI11</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,8 +168,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +450,221 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>45292</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>45293</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>45294</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>